--- a/output/freezer_03_shelf3/c3_exceldata.xlsx
+++ b/output/freezer_03_shelf3/c3_exceldata.xlsx
@@ -28,7 +28,7 @@
     <t>F3-S3-R1-CL1</t>
   </si>
   <si>
-    <t>RCK100</t>
+    <t>RCK110</t>
   </si>
   <si>
     <t>F3-S3-R1-CL2</t>
@@ -40,7 +40,7 @@
     <t>F3-S3-R2-CL1</t>
   </si>
   <si>
-    <t>RCK101</t>
+    <t>RCK111</t>
   </si>
   <si>
     <t>F3-S3-R2-CL2</t>
@@ -52,7 +52,7 @@
     <t>F3-S3-R3-CL1</t>
   </si>
   <si>
-    <t>RCK102</t>
+    <t>RCK112</t>
   </si>
   <si>
     <t>F3-S3-R3-CL2</t>
